--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="18195" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="18195" windowHeight="7875" tabRatio="546"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -170,14 +170,17 @@
     <t>להפוך מליסט בוקס לטבלאות בהיסטוריות</t>
   </si>
   <si>
-    <t>get_msg_type: not valid message type for sos messages (et)</t>
+    <t>get_msg_type: not valid message type for sos messages</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +201,22 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="48"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -220,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
@@ -239,6 +258,14 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G16"/>
+  <dimension ref="B1:K19"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,111 +582,97 @@
     <col min="5" max="5" width="4.5703125" customWidth="1"/>
     <col min="6" max="6" width="11.140625" customWidth="1"/>
     <col min="7" max="7" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="B1" s="9">
+        <f ca="1">H1 - TODAY()</f>
+        <v>24</v>
+      </c>
+      <c r="H1" s="10">
+        <v>41409</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>2</v>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>12</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G7" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -667,66 +680,94 @@
       <c r="F10" s="5"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>6</v>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="F14" s="5"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G14" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="5"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
-        <v>22</v>
-      </c>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="3"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="3"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <r>
       <t>פיצ'רים לבטא</t>
@@ -172,13 +172,16 @@
   <si>
     <t>get_msg_type: not valid message type for sos messages</t>
   </si>
+  <si>
+    <t>להוסיף מודל של Alert Format</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -264,7 +267,7 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -568,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K19"/>
+  <dimension ref="B1:K21"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,7 +592,7 @@
     <row r="1" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B1" s="9">
         <f ca="1">H1 - TODAY()</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H1" s="10">
         <v>41409</v>
@@ -692,35 +695,20 @@
       </c>
       <c r="G11" s="3"/>
     </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+    </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="3"/>
+      <c r="B14" s="3"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -728,11 +716,13 @@
         <v>20</v>
       </c>
       <c r="F16" s="5"/>
-      <c r="G16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -744,7 +734,7 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -753,11 +743,10 @@
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="3"/>
-      <c r="K18" s="7"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -766,8 +755,33 @@
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="3"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="3"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="3"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <r>
       <t>פיצ'רים לבטא</t>
@@ -174,6 +174,36 @@
   </si>
   <si>
     <t>להוסיף מודל של Alert Format</t>
+  </si>
+  <si>
+    <t>לעדכן GPS SERVER להוסיף נהג ל Location log</t>
+  </si>
+  <si>
+    <t>unit route view should supply total route length to the template</t>
+  </si>
+  <si>
+    <t>28.8.2013</t>
+  </si>
+  <si>
+    <t>תצוגת פרוייקטים</t>
+  </si>
+  <si>
+    <t>26.5.2013</t>
+  </si>
+  <si>
+    <t>19.5.2013</t>
+  </si>
+  <si>
+    <t>תאריך אחרון לשליחת תקציר לאישור</t>
+  </si>
+  <si>
+    <t>31.7.2013</t>
+  </si>
+  <si>
+    <t>הגשת פוסטר לאישור המנחה</t>
+  </si>
+  <si>
+    <t>שליחת תקציר מאושר על ידי המנחה אל : projects@mta.ac.il</t>
   </si>
 </sst>
 </file>
@@ -574,7 +604,7 @@
   <dimension ref="B1:K21"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,20 +615,21 @@
     <col min="5" max="5" width="4.5703125" customWidth="1"/>
     <col min="6" max="6" width="11.140625" customWidth="1"/>
     <col min="7" max="7" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="52.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="1" spans="2:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B1" s="9">
         <f ca="1">H1 - TODAY()</f>
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="H1" s="10">
         <v>41409</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -614,7 +645,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
@@ -624,7 +655,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -633,8 +664,14 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
@@ -645,8 +682,14 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
@@ -657,13 +700,25 @@
       <c r="G7" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
@@ -672,8 +727,9 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
@@ -682,8 +738,9 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
@@ -695,18 +752,22 @@
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>13</v>
       </c>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <r>
       <t>פיצ'רים לבטא</t>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>שליחת תקציר מאושר על ידי המנחה אל : projects@mta.ac.il</t>
+  </si>
+  <si>
+    <t>לסדר</t>
   </si>
 </sst>
 </file>
@@ -601,15 +604,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K21"/>
+  <dimension ref="B1:K22"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="59.28515625" customWidth="1"/>
+    <col min="2" max="2" width="64.85546875" customWidth="1"/>
     <col min="3" max="3" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.5703125" customWidth="1"/>
@@ -623,7 +626,7 @@
     <row r="1" spans="2:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B1" s="9">
         <f ca="1">H1 - TODAY()</f>
-        <v>10</v>
+        <v>-2</v>
       </c>
       <c r="H1" s="10">
         <v>41409</v>
@@ -646,92 +649,91 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="3"/>
       <c r="H6" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="3"/>
+      <c r="H7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -742,48 +744,48 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
       <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -791,11 +793,13 @@
         <v>20</v>
       </c>
       <c r="F17" s="5"/>
-      <c r="G17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -807,7 +811,7 @@
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -819,7 +823,7 @@
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -828,11 +832,10 @@
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="3"/>
-      <c r="K20" s="7"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -841,8 +844,21 @@
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="3"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="3"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <r>
       <t>פיצ'רים לבטא</t>
@@ -204,9 +204,6 @@
   </si>
   <si>
     <t>שליחת תקציר מאושר על ידי המנחה אל : projects@mta.ac.il</t>
-  </si>
-  <si>
-    <t>לסדר</t>
   </si>
 </sst>
 </file>
@@ -604,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K22"/>
+  <dimension ref="B1:K21"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,7 +623,7 @@
     <row r="1" spans="2:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B1" s="9">
         <f ca="1">H1 - TODAY()</f>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H1" s="10">
         <v>41409</v>
@@ -649,91 +646,92 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>21</v>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="3"/>
+      <c r="H5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5"/>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="3"/>
       <c r="H6" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>12</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="H7" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="3" t="s">
-        <v>15</v>
+      <c r="B8" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" t="s">
-        <v>27</v>
-      </c>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -744,48 +742,52 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="3"/>
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -793,13 +795,11 @@
         <v>20</v>
       </c>
       <c r="F17" s="5"/>
-      <c r="G17" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -811,7 +811,7 @@
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -823,7 +823,7 @@
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -832,10 +832,11 @@
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="3"/>
+      <c r="K20" s="7"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -844,21 +845,8 @@
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="3"/>
-      <c r="K21" s="7"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="3"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <r>
       <t>פיצ'רים לבטא</t>
@@ -140,18 +140,12 @@
     <t>יחד</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>התקנת South</t>
   </si>
   <si>
     <t>חצי שעה</t>
   </si>
   <si>
-    <t>רק להחליט על פורמט ולמי לשלוח</t>
-  </si>
-  <si>
     <t>אוסף Recipient לכל משתמש</t>
   </si>
   <si>
@@ -167,9 +161,6 @@
     <t>V</t>
   </si>
   <si>
-    <t>להפוך מליסט בוקס לטבלאות בהיסטוריות</t>
-  </si>
-  <si>
     <t>get_msg_type: not valid message type for sos messages</t>
   </si>
   <si>
@@ -204,6 +195,12 @@
   </si>
   <si>
     <t>שליחת תקציר מאושר על ידי המנחה אל : projects@mta.ac.il</t>
+  </si>
+  <si>
+    <t>להפוך מליסט בוקס לטבלאות בהיסטוריות -- נשאר רק בהיסטוריית רכב! :)</t>
+  </si>
+  <si>
+    <t>שליחת דוח התקדמות!!!!!</t>
   </si>
 </sst>
 </file>
@@ -213,7 +210,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,6 +248,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -272,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
@@ -298,6 +303,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -601,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K21"/>
+  <dimension ref="B1:K23"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,8 +631,15 @@
     <row r="1" spans="2:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.9">
       <c r="B1" s="9">
         <f ca="1">H1 - TODAY()</f>
-        <v>-3</v>
-      </c>
+        <v>-6</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
       <c r="H1" s="10">
         <v>41409</v>
       </c>
@@ -647,7 +662,7 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -656,8 +671,8 @@
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>6</v>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -665,190 +680,209 @@
       <c r="F5" s="5"/>
       <c r="G5" s="3"/>
       <c r="H5" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>12</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="3"/>
       <c r="H6" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="B7" s="3"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="G7" s="3"/>
       <c r="H7" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="3"/>
       <c r="H8" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+        <v>20</v>
+      </c>
       <c r="F9" s="5"/>
       <c r="G9" s="3"/>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="3"/>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
       <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="5"/>
+      <c r="B13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+        <v>21</v>
+      </c>
       <c r="E17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F17" s="5"/>
-      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F18" s="5"/>
-      <c r="G18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="3"/>
-      <c r="K20" s="7"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="3"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="3"/>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="3"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
